--- a/data/trans_orig/P79A5_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79A5_2023-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>3037</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6088741062475075</v>
+        <v>0.6088741062475076</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>4210</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1422</v>
+        <v>1388</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>6418</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6560162931761926</v>
+        <v>0.6560162931761927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2216311858441873</v>
+        <v>0.2162779393603507</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4991</v>
+        <v>5030</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3439837068238072</v>
+        <v>0.3439837068238073</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7776479338423435</v>
+        <v>0.7837220606396493</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>3242</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>963</v>
+        <v>1313</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>3947</v>
@@ -1001,7 +1001,7 @@
         <v>0.8214070746419823</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2440261454528105</v>
+        <v>0.3327300367838948</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2970</v>
+        <v>2371</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1785929253580177</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7523961717624903</v>
+        <v>0.6007566550894394</v>
       </c>
     </row>
     <row r="9">
@@ -1159,16 +1159,16 @@
         <v>7199</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4054</v>
+        <v>3930</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>8857</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8128511720148941</v>
+        <v>0.8128511720148942</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4577322467427321</v>
+        <v>0.443753746740839</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>9770</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6236</v>
+        <v>6066</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>11428</v>
@@ -1202,7 +1202,7 @@
         <v>0.854947628638274</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5456395069738805</v>
+        <v>0.5308438659529325</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4802</v>
+        <v>4945</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1871488279851058</v>
+        <v>0.1871488279851059</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5421732200641699</v>
+        <v>0.5583137222435263</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5192</v>
+        <v>5362</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.145052371361726</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4543604930261196</v>
+        <v>0.4691561340470678</v>
       </c>
     </row>
     <row r="12">
@@ -1360,19 +1360,19 @@
         <v>15163</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10807</v>
+        <v>10873</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17133</v>
+        <v>17202</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8571189277071264</v>
+        <v>0.8571189277071262</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6108874871071479</v>
+        <v>0.6146127952401489</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9684628031094767</v>
+        <v>0.9723643624935455</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1381,16 +1381,16 @@
         <v>6965</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4191</v>
+        <v>4288</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>8318</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8373833175824972</v>
+        <v>0.8373833175824973</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5038253989647895</v>
+        <v>0.515451642232763</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -1402,19 +1402,19 @@
         <v>22128</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17751</v>
+        <v>17945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24556</v>
+        <v>24816</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8508074300367415</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6825379457244496</v>
+        <v>0.6899635335031231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9441854344454386</v>
+        <v>0.9541654196283553</v>
       </c>
     </row>
     <row r="14">
@@ -1431,19 +1431,19 @@
         <v>2528</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>558</v>
+        <v>489</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6884</v>
+        <v>6818</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1428810722928737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0315371968905233</v>
+        <v>0.02763563750645436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.389112512892852</v>
+        <v>0.3853872047598509</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1455,16 +1455,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4127</v>
+        <v>4030</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1626166824175028</v>
+        <v>0.1626166824175029</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.49617460103521</v>
+        <v>0.484548357767237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1473,19 +1473,19 @@
         <v>3880</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1452</v>
+        <v>1192</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8257</v>
+        <v>8063</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1491925699632584</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05581456555456139</v>
+        <v>0.04583458037164458</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3174620542755514</v>
+        <v>0.3100364664968768</v>
       </c>
     </row>
     <row r="15">
@@ -1577,19 +1577,19 @@
         <v>7108</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3756</v>
+        <v>3479</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9926</v>
+        <v>9992</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6439943765753435</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3402789875338881</v>
+        <v>0.3151523796372717</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8992758316738534</v>
+        <v>0.9052005906941993</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1598,19 +1598,19 @@
         <v>11923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8271</v>
+        <v>8793</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14534</v>
+        <v>14608</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7180196480563927</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.498128078417989</v>
+        <v>0.5295427384598973</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8752738799726135</v>
+        <v>0.879723563329601</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1619,19 +1619,19 @@
         <v>19030</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13740</v>
+        <v>14293</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22847</v>
+        <v>23118</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6884609535157418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4970704187812219</v>
+        <v>0.5170780390676953</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8265306148444882</v>
+        <v>0.8363224487247201</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>3930</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1112</v>
+        <v>1046</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7282</v>
+        <v>7559</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3560056234246566</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1007241683261466</v>
+        <v>0.09479940930580055</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6597210124661116</v>
+        <v>0.6848476203627279</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1669,19 +1669,19 @@
         <v>4682</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2071</v>
+        <v>1997</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8334</v>
+        <v>7812</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2819803519436073</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1247261200273864</v>
+        <v>0.1202764366703992</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5018719215820111</v>
+        <v>0.4704572615401026</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1690,19 +1690,19 @@
         <v>8612</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4795</v>
+        <v>4524</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13902</v>
+        <v>13349</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3115390464842583</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1734693851555118</v>
+        <v>0.16367755127528</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5029295812187776</v>
+        <v>0.4829219609323046</v>
       </c>
     </row>
     <row r="18">
@@ -1807,16 +1807,16 @@
         <v>8549</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4048</v>
+        <v>4493</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>10728</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7968462012741176</v>
+        <v>0.7968462012741179</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3773627054931691</v>
+        <v>0.418778161593116</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>1</v>
@@ -1828,16 +1828,16 @@
         <v>10990</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6694</v>
+        <v>6293</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>13169</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8345000506314783</v>
+        <v>0.834500050631478</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5083305724145868</v>
+        <v>0.4778961416010873</v>
       </c>
       <c r="W19" s="6" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6680</v>
+        <v>6235</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2031537987258824</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6226372945068297</v>
+        <v>0.5812218384068842</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6475</v>
+        <v>6876</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1654999493685219</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4916694275854132</v>
+        <v>0.5221038583989126</v>
       </c>
     </row>
     <row r="21">
@@ -1995,19 +1995,19 @@
         <v>35592</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29676</v>
+        <v>28859</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40148</v>
+        <v>40035</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7927891965388413</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6610123357960538</v>
+        <v>0.6428025198243031</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8942605865412814</v>
+        <v>0.8917434845781774</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -2016,19 +2016,19 @@
         <v>33779</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27960</v>
+        <v>28271</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38035</v>
+        <v>38183</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7726577090063724</v>
+        <v>0.7726577090063723</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6395522155316773</v>
+        <v>0.6466680257709934</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8700052404137866</v>
+        <v>0.8733843740582716</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>80</v>
@@ -2037,19 +2037,19 @@
         <v>69371</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>61772</v>
+        <v>61081</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>75699</v>
+        <v>76142</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7828571754524601</v>
+        <v>0.7828571754524606</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6970954684035748</v>
+        <v>0.6893010119700447</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8542687253579474</v>
+        <v>0.8592686199334174</v>
       </c>
     </row>
     <row r="23">
@@ -2066,19 +2066,19 @@
         <v>9303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4747</v>
+        <v>4860</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15219</v>
+        <v>16036</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2072108034611587</v>
+        <v>0.2072108034611588</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1057394134587185</v>
+        <v>0.1082565154218224</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3389876642039465</v>
+        <v>0.3571974801756966</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2087,19 +2087,19 @@
         <v>9939</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5683</v>
+        <v>5535</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15758</v>
+        <v>15447</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2273422909936275</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1299947595862135</v>
+        <v>0.1266156259417283</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3604477844683225</v>
+        <v>0.3533319742290066</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -2108,19 +2108,19 @@
         <v>19242</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12914</v>
+        <v>12471</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26841</v>
+        <v>27532</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2171428245475397</v>
+        <v>0.2171428245475398</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1457312746420525</v>
+        <v>0.1407313800665827</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3029045315964252</v>
+        <v>0.3106989880299556</v>
       </c>
     </row>
     <row r="24">
